--- a/Assignment 3/ori00_asst3_report.xlsx
+++ b/Assignment 3/ori00_asst3_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osama\OneDrive\Documents\GitHub\CMPS 270 Assignments\CMPS-270-Assignments\Assignment 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77470BA-D742-426E-AE96-9A3E5D9C877C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F087D60-8AA2-4FC0-807D-0F2B929FD405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E89B9298-4CDB-4EC2-AFDC-DAA15B92233E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E89B9298-4CDB-4EC2-AFDC-DAA15B92233E}"/>
   </bookViews>
   <sheets>
     <sheet name="Race" sheetId="1" r:id="rId1"/>
@@ -290,19 +290,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
@@ -720,19 +720,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
@@ -1499,13 +1499,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53500000000000003</c:v>
+                  <c:v>0.88500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -1562,7 +1562,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.41</c:v>
@@ -1998,7 +1998,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -2019,7 +2019,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -2067,7 +2067,7 @@
                   <c:v>0.155</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1</c:v>
@@ -2085,7 +2085,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.70330000000000004</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5647,7 +5647,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6482,14 +6482,14 @@
         <v>590958.69999999995</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -6546,14 +6546,14 @@
         <v>274793.5</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -6578,14 +6578,14 @@
         <v>203829.41</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -6610,14 +6610,14 @@
         <v>202464.58</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -6699,7 +6699,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7642,8 +7642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50AE75B-B236-48EB-9D05-F6288640697A}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7881,25 +7881,25 @@
         <v>1.3900000000000002E-3</v>
       </c>
       <c r="E8">
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G8">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <f>AVERAGE(H8:H9)</f>
-        <v>0.53500000000000003</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="J8">
-        <v>0.53500000000000003</v>
+        <v>0.88500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -7924,11 +7924,11 @@
         <v>96</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>0.77</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -7942,31 +7942,31 @@
         <v>32</v>
       </c>
       <c r="C10">
-        <v>0.2195</v>
+        <v>0.61950000000000005</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>2.1949999999999999E-3</v>
+        <v>6.1950000000000009E-3</v>
       </c>
       <c r="E10">
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
-        <v>96</v>
+        <f>AVERAGE(E10/100)</f>
+        <v>100</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -8613,7 +8613,7 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -8894,14 +8894,14 @@
         <v>222996.95</v>
       </c>
       <c r="G38">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -9013,8 +9013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A974F6A-F295-4BB9-94E0-1E31BF1E8E85}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9288,24 +9288,24 @@
         <v>2.3599999999999997E-3</v>
       </c>
       <c r="E9">
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -9323,21 +9323,21 @@
         <v>4.9199999999999999E-3</v>
       </c>
       <c r="E10">
-        <v>6400</v>
+        <v>10000</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -9533,24 +9533,24 @@
         <v>2.47E-3</v>
       </c>
       <c r="E16">
-        <v>998400</v>
+        <v>1000000</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>9984</v>
+        <v>10000</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -10095,17 +10095,17 @@
         <v>207117.86</v>
       </c>
       <c r="G32">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="H32">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.61</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0.61</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -10313,7 +10313,7 @@
         <v>1</v>
       </c>
       <c r="J38">
-        <v>0.70330000000000004</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -10410,7 +10410,7 @@
       </c>
       <c r="I41">
         <f>AVERAGE(H41:H43)</f>
-        <v>0.70333333333333348</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -10435,11 +10435,11 @@
         <v>1609606.4</v>
       </c>
       <c r="G42">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="H42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
